--- a/Rast_Latam(editar)/Rastreamento1.xlsx
+++ b/Rast_Latam(editar)/Rastreamento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\PYTHON\Rast_Latam(editar)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25270310-8A3E-488D-AEAE-F697C9EE3879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A1B8D4-E787-448E-8C84-00036ED5142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AE650C7-0770-45E0-AAC0-38E8BF2E387A}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>LATAM - SUBWAY</t>
   </si>
   <si>
     <t>Tranferencia</t>
-  </si>
-  <si>
-    <t>Retida</t>
   </si>
   <si>
     <t>fraquia</t>
@@ -551,7 +548,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="A7:E1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -564,19 +561,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="6">
         <v>45182</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -590,7 +587,7 @@
         <v>95712801530</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -607,7 +604,7 @@
         <v>95712800896</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4">
         <v>45174</v>
@@ -624,7 +621,7 @@
         <v>95712800093</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
         <v>45174</v>
@@ -658,7 +655,7 @@
         <v>95713102972</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>

--- a/Rast_Latam(editar)/Rastreamento1.xlsx
+++ b/Rast_Latam(editar)/Rastreamento1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\PYTHON\Rast_Latam(editar)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A1B8D4-E787-448E-8C84-00036ED5142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71399678-B7FF-46E3-9BBF-74F860079C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AE650C7-0770-45E0-AAC0-38E8BF2E387A}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>95712801530</v>
+        <v>12801530</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>95712799592</v>
+        <v>12799592</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
